--- a/utility/data/data_layout.xlsx
+++ b/utility/data/data_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666E8B2-347F-428F-84BF-AFF348945E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3716247-2AAA-44E6-BEB2-699E48276802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="840" windowWidth="14250" windowHeight="15555" xr2:uid="{F420B662-B1EA-435B-B855-635F6C35F561}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="14250" windowHeight="15555" activeTab="1" xr2:uid="{F420B662-B1EA-435B-B855-635F6C35F561}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4AE551-4CD4-4870-BB80-3EB51F887DC0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -838,7 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACAD14B-F4AD-4D3D-A903-C0C91AB50975}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
